--- a/st00.docs/html&css정리.20190223.xlsx
+++ b/st00.docs/html&css정리.20190223.xlsx
@@ -235,10 +235,6 @@
   </si>
   <si>
     <t>왼쪽이나 오른쪽에 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀 안에서 수직 정렬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1535,10 +1531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vertical-align</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태그(요소) 위치를 지정하는 속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1608,6 +1600,14 @@
   <si>
     <t>border
 테두리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀(태그) 안에서 수직 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertical-align</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1618,7 +1618,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000\-000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2105,57 +2105,69 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2164,18 +2176,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2940,7 +2940,7 @@
       <selection activeCell="B52" sqref="B52:D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.25" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.375" style="44" bestFit="1" customWidth="1"/>
@@ -2949,547 +2949,552 @@
     <col min="5" max="16384" width="86.625" style="44"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="C2" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="D2" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="45" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="B3" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="C3" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="D3" s="45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="B4" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="C4" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="D4" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="45" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="45" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="B5" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="C5" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="D5" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="45" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="45" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="B6" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="C6" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="D6" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="45" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="71" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="B7" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="C7" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="D7" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="45" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="45" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="45" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="53"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="D11" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="73"/>
+      <c r="B13" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="73"/>
+      <c r="B14" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="73"/>
+      <c r="B15" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="73"/>
+      <c r="B16" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="73"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="67" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="45" t="s">
+      <c r="D17" s="71"/>
+    </row>
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" s="73"/>
+      <c r="B18" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="45" t="s">
+      <c r="D18" s="71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="73"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="D17" s="67"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="67" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" s="45" t="s">
+      <c r="D19" s="71"/>
+    </row>
+    <row r="20" spans="1:4" ht="27">
+      <c r="A20" s="73"/>
+      <c r="B20" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="67" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="45" t="s">
+      <c r="D20" s="71" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="74"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="D19" s="67"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
-      <c r="B20" s="67" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" s="67"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="71"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="54"/>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="56"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="C24" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="D24" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="C25" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="D25" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="D25" s="45" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="45" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="B26" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="C26" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="D26" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="D26" s="45" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="45" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="B27" s="45" t="s">
         <v>266</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>267</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="45" t="s">
         <v>268</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>269</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="D31" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="48" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="B32" s="67" t="s">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="D32" s="76"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="71"/>
+      <c r="B34" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="69"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
-      <c r="B34" s="45" t="s">
+      <c r="C34" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="D34" s="46"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="71"/>
+      <c r="B35" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="46"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="67"/>
-      <c r="B35" s="45" t="s">
+      <c r="C35" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="D35" s="46"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="71"/>
+      <c r="B36" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="D35" s="46"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
-      <c r="B36" s="50" t="s">
+      <c r="C36" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C36" s="51" t="s">
-        <v>277</v>
-      </c>
       <c r="D36" s="46"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="67"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="71"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
       <c r="D37" s="46"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="71"/>
       <c r="B38" s="49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="71"/>
       <c r="B39" s="49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
+    <row r="40" spans="1:4">
+      <c r="A40" s="71"/>
       <c r="B40" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C40" s="46"/>
       <c r="D40" s="46"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="67"/>
+    <row r="41" spans="1:4">
+      <c r="A41" s="71"/>
       <c r="B41" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" s="46"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="71"/>
+      <c r="B42" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C42" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="D41" s="46"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
-      <c r="B42" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>282</v>
-      </c>
       <c r="D42" s="46"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="67"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="71"/>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
       <c r="D43" s="46"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="67"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="71"/>
       <c r="B44" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="D44" s="45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="71"/>
+      <c r="B45" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="71"/>
+      <c r="B46" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="D44" s="45" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
-      <c r="B45" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="67"/>
-      <c r="B46" s="49" t="s">
+      <c r="C46" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="D46" s="46"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="71"/>
+      <c r="B47" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="D46" s="46"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="67"/>
-      <c r="B47" s="49" t="s">
+      <c r="C47" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="D47" s="46"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="D47" s="46"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="70" t="s">
-        <v>305</v>
-      </c>
-      <c r="B51" s="45" t="s">
+      <c r="C51" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="D51" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="D51" s="45" t="s">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="73"/>
+      <c r="B52" s="61" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="71"/>
-      <c r="B52" s="61" t="s">
+      <c r="C52" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="61" t="s">
+      <c r="D52" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="61" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="73"/>
+      <c r="B53" s="45" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="71"/>
-      <c r="B53" s="45" t="s">
+      <c r="C53" s="45" t="s">
         <v>297</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>298</v>
       </c>
       <c r="D53" s="45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="71"/>
+    <row r="54" spans="1:4">
+      <c r="A54" s="73"/>
       <c r="B54" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="D54" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="D54" s="45" t="s">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="74"/>
+      <c r="B55" s="45" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="72"/>
-      <c r="B55" s="45" t="s">
+      <c r="C55" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="D55" s="45" t="s">
         <v>303</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A32:A47"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -3500,11 +3505,6 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A32:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3515,11 +3515,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
@@ -3530,42 +3530,42 @@
     <col min="13" max="13" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="25"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>182</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>181</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>185</v>
-      </c>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="84"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="84"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="18" t="s">
         <v>21</v>
       </c>
@@ -3573,109 +3573,109 @@
         <v>40</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42.75">
+      <c r="A5" s="84"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="18" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="76"/>
+    </row>
+    <row r="6" spans="1:8" ht="42.75">
+      <c r="A6" s="84"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="76"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57">
+      <c r="A7" s="84"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="84"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="57">
+      <c r="A9" s="84"/>
+      <c r="B9" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="D9" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="76"/>
+    <row r="10" spans="1:8" ht="57">
+      <c r="A10" s="84"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="76"/>
+    <row r="11" spans="1:8" ht="42.75">
+      <c r="A11" s="84"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D11" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>174</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>175</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="76"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="84"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
@@ -3686,9 +3686,9 @@
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="76"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="84"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
@@ -3699,24 +3699,24 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="76"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="84"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="76"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="84"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
@@ -3727,9 +3727,9 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="76"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="84"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="18" t="s">
         <v>28</v>
       </c>
@@ -3740,660 +3740,660 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="76"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="84"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="76"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.5">
+      <c r="A18" s="84"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
-      <c r="B19" s="76"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="84"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="76"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="84"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="76"/>
+    <row r="21" spans="1:5" ht="28.5">
+      <c r="A21" s="84"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
-      <c r="B22" s="76" t="s">
-        <v>178</v>
+    </row>
+    <row r="22" spans="1:5" ht="57">
+      <c r="A22" s="84"/>
+      <c r="B22" s="82" t="s">
+        <v>177</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
-      <c r="B23" s="76"/>
+    </row>
+    <row r="23" spans="1:5" ht="28.5">
+      <c r="A23" s="84"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
-      <c r="B24" s="76"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.5">
+      <c r="A24" s="84"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
+    </row>
+    <row r="25" spans="1:5" ht="57">
+      <c r="A25" s="85"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
-    </row>
-    <row r="27" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+    </row>
+    <row r="27" spans="1:5" ht="209.25" customHeight="1">
       <c r="A27" s="57"/>
       <c r="B27" s="57" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="28"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
-        <v>375</v>
-      </c>
-      <c r="B28" s="77" t="s">
-        <v>376</v>
+    <row r="28" spans="1:5" ht="57">
+      <c r="A28" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="B28" s="86" t="s">
+        <v>374</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A29" s="76"/>
-      <c r="B29" s="76"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="42.75">
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="81" t="s">
         <v>341</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>342</v>
-      </c>
       <c r="E31" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="42.75">
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="42" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="114">
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="82"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="5" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
+    <row r="40" spans="1:5" ht="28.5">
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="E40" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="D40" s="59" t="s">
+    </row>
+    <row r="41" spans="1:5" ht="42.75">
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="E40" s="42" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A41" s="76"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="18" t="s">
-        <v>366</v>
-      </c>
       <c r="D41" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.5">
+      <c r="A42" s="82"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="42" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>72</v>
-      </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="76"/>
-      <c r="B43" s="77" t="s">
-        <v>360</v>
+    <row r="43" spans="1:5">
+      <c r="A43" s="82"/>
+      <c r="B43" s="86" t="s">
+        <v>359</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="82"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="82"/>
+      <c r="B45" s="82"/>
       <c r="C45" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="76"/>
-      <c r="B46" s="76"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A47" s="76"/>
-      <c r="B47" s="76"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="42.75">
+      <c r="A47" s="82"/>
+      <c r="B47" s="82"/>
       <c r="C47" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="82"/>
+      <c r="B48" s="86" t="s">
+        <v>358</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="76"/>
-      <c r="B49" s="76"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="82"/>
+      <c r="B49" s="82"/>
       <c r="C49" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="76"/>
-      <c r="B50" s="76"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="82"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="76"/>
-      <c r="B51" s="76"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
       <c r="C51" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A52" s="76"/>
-      <c r="B52" s="76"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="42.75">
+      <c r="A52" s="82"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="58"/>
       <c r="E52" s="16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A53" s="76"/>
-      <c r="B53" s="76" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.5">
+      <c r="A53" s="82"/>
+      <c r="B53" s="82" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" ht="28.5">
+      <c r="A56" s="82"/>
+      <c r="B56" s="82" t="s">
         <v>328</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="15" t="s">
+      <c r="C56" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="76"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>332</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="76"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A56" s="76"/>
-      <c r="B56" s="76" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="82"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="E56" s="15" t="s">
+      <c r="E57" s="15" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="76"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="15" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="82"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D58" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="76"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>331</v>
-      </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
       <c r="D59" s="25"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="A60" s="73" t="s">
-        <v>374</v>
+    <row r="60" spans="1:5" ht="99.75">
+      <c r="A60" s="87" t="s">
+        <v>372</v>
       </c>
       <c r="B60" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="57">
+      <c r="A61" s="84"/>
+      <c r="B61" s="82" t="s">
         <v>179</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A61" s="74"/>
-      <c r="B61" s="76" t="s">
-        <v>180</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A62" s="74"/>
-      <c r="B62" s="76"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="42.75">
+      <c r="A62" s="84"/>
+      <c r="B62" s="82"/>
       <c r="C62" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A63" s="74"/>
-      <c r="B63" s="76"/>
+    </row>
+    <row r="63" spans="1:5" ht="42.75">
+      <c r="A63" s="84"/>
+      <c r="B63" s="82"/>
       <c r="C63" s="35" t="s">
         <v>41</v>
       </c>
       <c r="D63" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="42.75">
+      <c r="A64" s="84"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E64" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A64" s="74"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" s="28" t="s">
+    <row r="65" spans="1:5" ht="57">
+      <c r="A65" s="84"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A65" s="74"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="35" t="s">
+      <c r="E65" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A66" s="74"/>
-      <c r="B66" s="76"/>
+    </row>
+    <row r="66" spans="1:5" ht="28.5">
+      <c r="A66" s="84"/>
+      <c r="B66" s="82"/>
       <c r="C66" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A67" s="74"/>
-      <c r="B67" s="76"/>
+    <row r="67" spans="1:5" ht="42.75">
+      <c r="A67" s="84"/>
+      <c r="B67" s="82"/>
       <c r="C67" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D67" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A68" s="74"/>
-      <c r="B68" s="76"/>
+    </row>
+    <row r="68" spans="1:5" ht="42.75">
+      <c r="A68" s="84"/>
+      <c r="B68" s="82"/>
       <c r="C68" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A69" s="75"/>
-      <c r="B69" s="76"/>
+    </row>
+    <row r="69" spans="1:5" ht="71.25">
+      <c r="A69" s="85"/>
+      <c r="B69" s="82"/>
       <c r="C69" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="62"/>
       <c r="B70" s="6"/>
       <c r="C70" s="63"/>
       <c r="D70" s="64"/>
       <c r="E70" s="65"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
       <c r="D71" s="32"/>
       <c r="E71" s="13"/>
     </row>
-    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A72" s="78" t="s">
-        <v>335</v>
+    <row r="72" spans="1:5" ht="42.75">
+      <c r="A72" s="77" t="s">
+        <v>334</v>
       </c>
       <c r="B72" s="83" t="s">
         <v>48</v>
@@ -4403,12 +4403,12 @@
       </c>
       <c r="D72" s="36"/>
       <c r="E72" s="37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="79"/>
-      <c r="B73" s="74"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="57">
+      <c r="A73" s="78"/>
+      <c r="B73" s="84"/>
       <c r="C73" s="35" t="s">
         <v>46</v>
       </c>
@@ -4416,36 +4416,36 @@
         <v>56</v>
       </c>
       <c r="E73" s="37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="79"/>
-      <c r="B74" s="74"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="78"/>
+      <c r="B74" s="84"/>
       <c r="C74" s="35" t="s">
         <v>47</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E74" s="35"/>
     </row>
-    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A75" s="79"/>
-      <c r="B75" s="74"/>
+    <row r="75" spans="1:5" ht="57">
+      <c r="A75" s="78"/>
+      <c r="B75" s="84"/>
       <c r="C75" s="35" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A76" s="79"/>
-      <c r="B76" s="74"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="28.5">
+      <c r="A76" s="78"/>
+      <c r="B76" s="84"/>
       <c r="C76" s="4" t="s">
         <v>49</v>
       </c>
@@ -4456,9 +4456,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A77" s="79"/>
-      <c r="B77" s="74"/>
+    <row r="77" spans="1:5" ht="28.5">
+      <c r="A77" s="78"/>
+      <c r="B77" s="84"/>
       <c r="C77" s="4" t="s">
         <v>54</v>
       </c>
@@ -4467,58 +4467,65 @@
       </c>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A78" s="79"/>
-      <c r="B78" s="74"/>
+    <row r="78" spans="1:5" ht="57">
+      <c r="A78" s="78"/>
+      <c r="B78" s="84"/>
       <c r="C78" s="34" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="D78" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="42.75">
+      <c r="A79" s="78"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E78" s="37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A79" s="79"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D79" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A80" s="79"/>
-      <c r="B80" s="74"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.5">
+      <c r="A80" s="78"/>
+      <c r="B80" s="84"/>
       <c r="C80" s="34" t="s">
         <v>50</v>
       </c>
       <c r="D80" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" s="35"/>
+    </row>
+    <row r="81" spans="1:5" ht="57">
+      <c r="A81" s="79"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="E81" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="E80" s="35"/>
-    </row>
-    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A81" s="80"/>
-      <c r="B81" s="75"/>
-      <c r="C81" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A72:A81"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -4527,14 +4534,7 @@
     <mergeCell ref="B72:B81"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
     <mergeCell ref="B61:B69"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4551,57 +4551,57 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4621,365 +4621,365 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="22" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="17.25">
+      <c r="A2" s="88" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="B2" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="17.25">
+      <c r="A3" s="88"/>
+      <c r="B3" s="23" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="84"/>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="23" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A4" s="88" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="B4" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5">
+      <c r="A5" s="88"/>
+      <c r="B5" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34.5">
+      <c r="A6" s="88"/>
+      <c r="B6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.5">
+      <c r="A7" s="88"/>
+      <c r="B7" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
-      <c r="B5" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="23" t="s">
+    <row r="8" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A8" s="88" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="B8" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25">
+      <c r="A9" s="88"/>
+      <c r="B9" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34.5">
+      <c r="A10" s="88"/>
+      <c r="B10" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="23" t="s">
+    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
+      <c r="A11" s="89" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="B11" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="23" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="17.25" hidden="1">
+      <c r="A12" s="90"/>
+      <c r="B12" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="90"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25">
+      <c r="A13" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25">
+      <c r="A14" s="88"/>
+      <c r="B14" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25">
+      <c r="A15" s="88"/>
+      <c r="B15" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34.5">
+      <c r="A16" s="88"/>
+      <c r="B16" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34.5">
+      <c r="A17" s="88"/>
+      <c r="B17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25">
+      <c r="A18" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25">
+      <c r="A19" s="88"/>
+      <c r="B19" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25">
+      <c r="A20" s="88"/>
+      <c r="B20" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25">
+      <c r="A21" s="88"/>
+      <c r="B21" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="51.75">
+      <c r="A22" s="88"/>
+      <c r="B22" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34.5">
+      <c r="A23" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="86"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="C23" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25">
+      <c r="A24" s="88"/>
+      <c r="B24" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" spans="1:3" ht="17.25">
+      <c r="A25" s="88"/>
+      <c r="B25" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="88"/>
+      <c r="B26" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="24"/>
+    </row>
+    <row r="27" spans="1:3" ht="17.25">
+      <c r="A27" s="88"/>
+      <c r="B27" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="1:3" ht="17.25">
+      <c r="A28" s="88"/>
+      <c r="B28" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="24"/>
+    </row>
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="24"/>
+    </row>
+    <row r="30" spans="1:3" ht="17.25">
+      <c r="A30" s="88"/>
+      <c r="B30" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:3" ht="17.25">
+      <c r="A31" s="88"/>
+      <c r="B31" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="1:3" ht="17.25">
+      <c r="A32" s="88"/>
+      <c r="B32" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="24"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.25">
+      <c r="A33" s="88"/>
+      <c r="B33" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="24"/>
+    </row>
+    <row r="34" spans="1:3" ht="17.25">
+      <c r="A34" s="88"/>
+      <c r="B34" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
-      <c r="B21" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="84" t="s">
+      <c r="C34" s="24"/>
+    </row>
+    <row r="35" spans="1:3" ht="17.25">
+      <c r="A35" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
-      <c r="B24" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="24"/>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
-      <c r="B25" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="24"/>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
-      <c r="B26" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="24"/>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="84"/>
-      <c r="B27" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="24"/>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="84"/>
-      <c r="B28" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="24"/>
-    </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
-      <c r="B30" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="24"/>
-    </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
-      <c r="B31" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="24"/>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="84"/>
-      <c r="B32" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="24"/>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="84"/>
-      <c r="B33" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="24"/>
-    </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="84"/>
-      <c r="B34" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="24"/>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="23" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="34.5">
+      <c r="A36" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="23" t="s">
+      <c r="C36" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34.5">
+      <c r="A37" s="88"/>
+      <c r="B37" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="34.5">
+      <c r="A38" s="88"/>
+      <c r="B38" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="84"/>
-      <c r="B37" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="84"/>
-      <c r="B38" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/st00.docs/html&css정리.20190223.xlsx
+++ b/st00.docs/html&css정리.20190223.xlsx
@@ -764,13 +764,6 @@
   </si>
   <si>
     <t>list-style-type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-style-type:none;
-list-style-type:disc;
-list-style-type:square;
-list-style-type:circle;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1608,6 +1601,13 @@
   </si>
   <si>
     <t>vertical-align</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-style-type:none; 없음
+list-style-type:disc; 꽉찬원(기본값)
+list-style-type:square; 사각형
+list-style-type:circle; 빈원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2120,6 +2120,12 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2129,11 +2135,20 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2150,23 +2165,8 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2936,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D55"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:D52"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
@@ -2951,86 +2951,86 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="C2" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="D2" s="48" t="s">
         <v>217</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="C3" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>221</v>
-      </c>
       <c r="D3" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="C4" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="D4" s="45" t="s">
         <v>224</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="C5" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="D5" s="45" t="s">
         <v>228</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="C6" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="D6" s="45" t="s">
         <v>232</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="C7" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="D7" s="45" t="s">
         <v>236</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3038,7 +3038,7 @@
       <c r="B8" s="71"/>
       <c r="C8" s="71"/>
       <c r="D8" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3054,125 +3054,125 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="D11" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="72" t="s">
-        <v>308</v>
+      <c r="A12" s="74" t="s">
+        <v>307</v>
       </c>
       <c r="B12" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="75"/>
+      <c r="B13" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="D12" s="45" t="s">
+      <c r="C13" s="45" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="73"/>
-      <c r="B13" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="C13" s="45" t="s">
+      <c r="D13" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="D13" s="45" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="75"/>
+      <c r="B14" s="45" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="73"/>
-      <c r="B14" s="45" t="s">
+      <c r="C14" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="D14" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="45" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="75"/>
+      <c r="B15" s="45" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="73"/>
-      <c r="B15" s="45" t="s">
+      <c r="C15" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="D15" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="45" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="75"/>
+      <c r="B16" s="71" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="73"/>
-      <c r="B16" s="71" t="s">
+      <c r="C16" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="73"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="71"/>
       <c r="C17" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D17" s="71"/>
     </row>
     <row r="18" spans="1:4" ht="27">
-      <c r="A18" s="73"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D18" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="73"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="71"/>
       <c r="C19" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D19" s="71"/>
     </row>
     <row r="20" spans="1:4" ht="27">
-      <c r="A20" s="73"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="74"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="71"/>
       <c r="C21" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D21" s="71"/>
     </row>
@@ -3190,125 +3190,125 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="C24" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="D24" s="48" t="s">
         <v>217</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="C25" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="D25" s="45" t="s">
         <v>259</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="C26" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="D26" s="45" t="s">
         <v>263</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="45" t="s">
         <v>265</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>266</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="45" t="s">
         <v>267</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>268</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="D31" s="48" t="s">
         <v>217</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" s="76"/>
+      <c r="D32" s="73"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="71"/>
       <c r="B33" s="71"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="71"/>
       <c r="B34" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="50" t="s">
         <v>271</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>272</v>
       </c>
       <c r="D34" s="46"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="71"/>
       <c r="B35" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" s="50" t="s">
         <v>273</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>274</v>
       </c>
       <c r="D35" s="46"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="71"/>
       <c r="B36" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" s="51" t="s">
         <v>275</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>276</v>
       </c>
       <c r="D36" s="46"/>
     </row>
@@ -3321,7 +3321,7 @@
     <row r="38" spans="1:4">
       <c r="A38" s="71"/>
       <c r="B38" s="49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -3329,7 +3329,7 @@
     <row r="39" spans="1:4">
       <c r="A39" s="71"/>
       <c r="B39" s="49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
@@ -3337,7 +3337,7 @@
     <row r="40" spans="1:4">
       <c r="A40" s="71"/>
       <c r="B40" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C40" s="46"/>
       <c r="D40" s="46"/>
@@ -3345,20 +3345,20 @@
     <row r="41" spans="1:4">
       <c r="A41" s="71"/>
       <c r="B41" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="46"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="71"/>
       <c r="B42" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D42" s="46"/>
     </row>
@@ -3371,130 +3371,125 @@
     <row r="44" spans="1:4">
       <c r="A44" s="71"/>
       <c r="B44" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="C44" s="45" t="s">
-        <v>285</v>
-      </c>
       <c r="D44" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="71"/>
       <c r="B45" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="61" t="s">
-        <v>283</v>
-      </c>
       <c r="D45" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="71"/>
       <c r="B46" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" s="45" t="s">
         <v>286</v>
-      </c>
-      <c r="C46" s="45" t="s">
-        <v>287</v>
       </c>
       <c r="D46" s="46"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="71"/>
       <c r="B47" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="45" t="s">
         <v>288</v>
-      </c>
-      <c r="C47" s="45" t="s">
-        <v>289</v>
       </c>
       <c r="D47" s="46"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="C50" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="D50" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="D50" s="48" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="72" t="s">
-        <v>304</v>
+      <c r="A51" s="74" t="s">
+        <v>303</v>
       </c>
       <c r="B51" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="D51" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="D51" s="45" t="s">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="75"/>
+      <c r="B52" s="61" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="73"/>
-      <c r="B52" s="61" t="s">
+      <c r="C52" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="C52" s="61" t="s">
+      <c r="D52" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="D52" s="61" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="75"/>
+      <c r="B53" s="45" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="73"/>
-      <c r="B53" s="45" t="s">
+      <c r="C53" s="45" t="s">
         <v>296</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>297</v>
       </c>
       <c r="D53" s="45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="73"/>
+      <c r="A54" s="75"/>
       <c r="B54" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="C54" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="D54" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="D54" s="45" t="s">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="76"/>
+      <c r="B55" s="45" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="74"/>
-      <c r="B55" s="45" t="s">
+      <c r="C55" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="D55" s="45" t="s">
         <v>302</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A32:A47"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -3505,6 +3500,11 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A32:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3515,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3538,10 +3538,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" s="82" t="s">
+      <c r="A2" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="80" t="s">
         <v>181</v>
       </c>
       <c r="C2" s="40" t="s">
@@ -3553,8 +3553,8 @@
       <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="84"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
@@ -3564,8 +3564,8 @@
       <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="84"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="18" t="s">
         <v>21</v>
       </c>
@@ -3573,25 +3573,25 @@
         <v>40</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42.75">
+      <c r="A5" s="78"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="18" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="42.75">
-      <c r="A5" s="84"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="18" t="s">
-        <v>209</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>180</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="42.75">
-      <c r="A6" s="84"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
@@ -3599,12 +3599,12 @@
         <v>186</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="57">
-      <c r="A7" s="84"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
@@ -3612,12 +3612,12 @@
         <v>185</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="84"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="5" t="s">
         <v>69</v>
       </c>
@@ -3627,25 +3627,25 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="57">
-      <c r="A9" s="84"/>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="80" t="s">
         <v>182</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="57">
-      <c r="A10" s="84"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="19" t="s">
         <v>59</v>
       </c>
@@ -3659,10 +3659,10 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="42.75">
-      <c r="A11" s="84"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>173</v>
@@ -3674,8 +3674,8 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="84"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
@@ -3687,8 +3687,8 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="84"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
@@ -3700,10 +3700,10 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="84"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>38</v>
@@ -3715,8 +3715,8 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="84"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
@@ -3728,8 +3728,8 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="84"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="18" t="s">
         <v>28</v>
       </c>
@@ -3741,8 +3741,8 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="84"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="5" t="s">
         <v>89</v>
       </c>
@@ -3754,21 +3754,21 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.5">
-      <c r="A18" s="84"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>369</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="84"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
@@ -3776,8 +3776,8 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="84"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
@@ -3785,8 +3785,8 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="84"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
@@ -3798,57 +3798,57 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="57">
-      <c r="A22" s="84"/>
-      <c r="B22" s="82" t="s">
+      <c r="A22" s="78"/>
+      <c r="B22" s="80" t="s">
         <v>177</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>191</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>192</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.5">
-      <c r="A23" s="84"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="84"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="25" spans="1:5" ht="57">
-      <c r="A25" s="85"/>
-      <c r="B25" s="82"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3861,78 +3861,78 @@
     <row r="27" spans="1:5" ht="209.25" customHeight="1">
       <c r="A27" s="57"/>
       <c r="B27" s="57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="28"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="57">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" s="81" t="s">
         <v>373</v>
-      </c>
-      <c r="B28" s="86" t="s">
-        <v>374</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="42.75">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="81" t="s">
-        <v>341</v>
-      </c>
       <c r="E31" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="42.75">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="5" t="s">
         <v>76</v>
       </c>
@@ -3942,19 +3942,19 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="5" t="s">
         <v>75</v>
       </c>
@@ -3964,19 +3964,19 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="114">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="18" t="s">
         <v>45</v>
       </c>
@@ -3984,12 +3984,12 @@
         <v>66</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="5" t="s">
         <v>53</v>
       </c>
@@ -3999,8 +3999,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="5" t="s">
         <v>65</v>
       </c>
@@ -4008,34 +4008,34 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="28.5">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="D40" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="E40" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="E40" s="42" t="s">
+    </row>
+    <row r="41" spans="1:5" ht="42.75">
+      <c r="A41" s="80"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="18" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="42.75">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="18" t="s">
-        <v>364</v>
       </c>
       <c r="D41" s="59" t="s">
         <v>70</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="28.5">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="5" t="s">
         <v>60</v>
       </c>
@@ -4045,194 +4045,194 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="82"/>
-      <c r="B43" s="86" t="s">
-        <v>359</v>
+      <c r="A43" s="80"/>
+      <c r="B43" s="81" t="s">
+        <v>358</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="42.75">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="82"/>
-      <c r="B48" s="86" t="s">
-        <v>358</v>
+      <c r="A48" s="80"/>
+      <c r="B48" s="81" t="s">
+        <v>357</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="80"/>
       <c r="C49" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="80"/>
       <c r="C50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="80"/>
       <c r="C51" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="42.75">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="80"/>
       <c r="C52" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="58"/>
       <c r="E52" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82" t="s">
-        <v>327</v>
+      <c r="A53" s="80"/>
+      <c r="B53" s="80" t="s">
+        <v>326</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D53" s="58" t="s">
         <v>164</v>
       </c>
       <c r="E53" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="80"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="80"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" ht="28.5">
+      <c r="A56" s="80"/>
+      <c r="B56" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>331</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="28.5">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="80"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D57" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="E56" s="15" t="s">
+      <c r="E57" s="15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="15" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="80"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D58" s="28" t="s">
         <v>329</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>330</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -4244,8 +4244,8 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="99.75">
-      <c r="A60" s="87" t="s">
-        <v>372</v>
+      <c r="A60" s="77" t="s">
+        <v>371</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>178</v>
@@ -4257,12 +4257,12 @@
         <v>88</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="57">
-      <c r="A61" s="84"/>
-      <c r="B61" s="82" t="s">
+      <c r="A61" s="78"/>
+      <c r="B61" s="80" t="s">
         <v>179</v>
       </c>
       <c r="C61" s="18" t="s">
@@ -4276,8 +4276,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="42.75">
-      <c r="A62" s="84"/>
-      <c r="B62" s="82"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="80"/>
       <c r="C62" s="5" t="s">
         <v>73</v>
       </c>
@@ -4289,8 +4289,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="42.75">
-      <c r="A63" s="84"/>
-      <c r="B63" s="82"/>
+      <c r="A63" s="78"/>
+      <c r="B63" s="80"/>
       <c r="C63" s="35" t="s">
         <v>41</v>
       </c>
@@ -4298,25 +4298,25 @@
         <v>79</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="42.75">
-      <c r="A64" s="84"/>
-      <c r="B64" s="82"/>
+      <c r="A64" s="78"/>
+      <c r="B64" s="80"/>
       <c r="C64" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>80</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="57">
-      <c r="A65" s="84"/>
-      <c r="B65" s="82"/>
+      <c r="A65" s="78"/>
+      <c r="B65" s="80"/>
       <c r="C65" s="35" t="s">
         <v>165</v>
       </c>
@@ -4328,8 +4328,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="28.5">
-      <c r="A66" s="84"/>
-      <c r="B66" s="82"/>
+      <c r="A66" s="78"/>
+      <c r="B66" s="80"/>
       <c r="C66" s="5" t="s">
         <v>42</v>
       </c>
@@ -4339,8 +4339,8 @@
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" ht="42.75">
-      <c r="A67" s="84"/>
-      <c r="B67" s="82"/>
+      <c r="A67" s="78"/>
+      <c r="B67" s="80"/>
       <c r="C67" s="5" t="s">
         <v>170</v>
       </c>
@@ -4352,8 +4352,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="42.75">
-      <c r="A68" s="84"/>
-      <c r="B68" s="82"/>
+      <c r="A68" s="78"/>
+      <c r="B68" s="80"/>
       <c r="C68" s="35" t="s">
         <v>168</v>
       </c>
@@ -4365,8 +4365,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="71.25">
-      <c r="A69" s="85"/>
-      <c r="B69" s="82"/>
+      <c r="A69" s="79"/>
+      <c r="B69" s="80"/>
       <c r="C69" s="34" t="s">
         <v>62</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>167</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4392,10 +4392,10 @@
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" ht="42.75">
-      <c r="A72" s="77" t="s">
-        <v>334</v>
-      </c>
-      <c r="B72" s="83" t="s">
+      <c r="A72" s="82" t="s">
+        <v>333</v>
+      </c>
+      <c r="B72" s="87" t="s">
         <v>48</v>
       </c>
       <c r="C72" s="35" t="s">
@@ -4407,8 +4407,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="57">
-      <c r="A73" s="78"/>
-      <c r="B73" s="84"/>
+      <c r="A73" s="83"/>
+      <c r="B73" s="78"/>
       <c r="C73" s="35" t="s">
         <v>46</v>
       </c>
@@ -4420,8 +4420,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="78"/>
-      <c r="B74" s="84"/>
+      <c r="A74" s="83"/>
+      <c r="B74" s="78"/>
       <c r="C74" s="35" t="s">
         <v>47</v>
       </c>
@@ -4431,21 +4431,21 @@
       <c r="E74" s="35"/>
     </row>
     <row r="75" spans="1:5" ht="57">
-      <c r="A75" s="78"/>
-      <c r="B75" s="84"/>
+      <c r="A75" s="83"/>
+      <c r="B75" s="78"/>
       <c r="C75" s="35" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="28.5">
-      <c r="A76" s="78"/>
-      <c r="B76" s="84"/>
+      <c r="A76" s="83"/>
+      <c r="B76" s="78"/>
       <c r="C76" s="4" t="s">
         <v>49</v>
       </c>
@@ -4457,8 +4457,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="28.5">
-      <c r="A77" s="78"/>
-      <c r="B77" s="84"/>
+      <c r="A77" s="83"/>
+      <c r="B77" s="78"/>
       <c r="C77" s="4" t="s">
         <v>54</v>
       </c>
@@ -4468,21 +4468,21 @@
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="57">
-      <c r="A78" s="78"/>
-      <c r="B78" s="84"/>
+      <c r="A78" s="83"/>
+      <c r="B78" s="78"/>
       <c r="C78" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E78" s="37" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="42.75">
-      <c r="A79" s="78"/>
-      <c r="B79" s="84"/>
+      <c r="A79" s="83"/>
+      <c r="B79" s="78"/>
       <c r="C79" s="4" t="s">
         <v>57</v>
       </c>
@@ -4494,8 +4494,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="28.5">
-      <c r="A80" s="78"/>
-      <c r="B80" s="84"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="78"/>
       <c r="C80" s="34" t="s">
         <v>50</v>
       </c>
@@ -4505,13 +4505,13 @@
       <c r="E80" s="35"/>
     </row>
     <row r="81" spans="1:5" ht="57">
-      <c r="A81" s="79"/>
-      <c r="B81" s="85"/>
+      <c r="A81" s="84"/>
+      <c r="B81" s="79"/>
       <c r="C81" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>159</v>
@@ -4519,13 +4519,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A72:A81"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -4535,6 +4528,13 @@
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="A60:A69"/>
     <mergeCell ref="B61:B69"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4970,16 +4970,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
